--- a/GroceryApplication/target/test-classes/TestData.xlsx
+++ b/GroceryApplication/target/test-classes/TestData.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Netcom\Desktop\Niranjana Obsqura\git\GroceryApplication\GroceryApplicationProject\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE3B430-7D2D-4DEA-92D8-C463CB4F7755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="680" windowWidth="14400" windowHeight="7360" xr2:uid="{7DE7987B-6C38-4540-8212-58F6E207B931}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18456" windowHeight="5628" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="HomePage" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:R17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -82,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,20 +422,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB41A160-7B3B-4832-872B-96E621C4DE0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.08984375" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -456,7 +451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -464,7 +459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -472,7 +467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -480,7 +475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -494,16 +489,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4F5952-68E5-4C83-90A4-A27AA66969A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -514,7 +509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -525,7 +520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>

--- a/GroceryApplication/target/test-classes/TestData.xlsx
+++ b/GroceryApplication/target/test-classes/TestData.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silpa\git\GroceryApplicationProject\GroceryApplication\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18456" windowHeight="5628" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18456" windowHeight="5628"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="HomePage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:R17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Username</t>
   </si>
@@ -423,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,6 +487,14 @@
         <v>16</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -492,7 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/GroceryApplication/target/test-classes/TestData.xlsx
+++ b/GroceryApplication/target/test-classes/TestData.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silpa\git\GroceryApplicationProject\GroceryApplication\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18456" windowHeight="5628"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19020" windowHeight="7716"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="HomePage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:P25"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
